--- a/test_youtube/Krittika/03_friday.xlsx
+++ b/test_youtube/Krittika/03_friday.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EGAT\Documents\GitHub\AICARE\test_youtube\Krittika\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C37A8D7-1FB2-42B8-84FC-8FC05EB0FBF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB60C0C-2AB6-4190-90E9-835C9BEE0CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="259">
   <si>
     <t>แหล่งที่มา</t>
   </si>
@@ -803,6 +803,9 @@
   <si>
     <t>label2</t>
   </si>
+  <si>
+    <t>9.17-9.18</t>
+  </si>
 </sst>
 </file>
 
@@ -1374,7 +1377,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1450,8 +1453,8 @@
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="66"/>
-      <c r="B6" s="64">
-        <v>9.17</v>
+      <c r="B6" s="64" t="s">
+        <v>258</v>
       </c>
       <c r="C6" s="65" t="s">
         <v>16</v>

--- a/test_youtube/Krittika/03_friday.xlsx
+++ b/test_youtube/Krittika/03_friday.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EGAT\Documents\GitHub\AICARE\test_youtube\Krittika\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB60C0C-2AB6-4190-90E9-835C9BEE0CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5EB6C0C-D135-4CF4-9932-F8E22A2500CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="259">
   <si>
     <t>แหล่งที่มา</t>
   </si>
@@ -811,7 +811,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -838,12 +838,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -984,7 +978,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1056,7 +1050,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1087,7 +1081,7 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1097,7 +1091,7 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1107,7 +1101,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1141,19 +1135,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1374,99 +1359,85 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="60" t="s">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="60" t="s">
         <v>255</v>
       </c>
+      <c r="B1" s="61" t="s">
+        <v>256</v>
+      </c>
       <c r="C1" s="61" t="s">
-        <v>256</v>
-      </c>
-      <c r="D1" s="61" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="63" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="64" t="s">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="B2" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="65" t="s">
+      <c r="C2" s="63" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="66"/>
-      <c r="B3" s="64" t="s">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="B3" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="65" t="s">
+      <c r="C3" s="63" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="66"/>
-      <c r="B4" s="64" t="s">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="B4" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="65" t="s">
+      <c r="C4" s="63" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="66"/>
-      <c r="B5" s="64" t="s">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="B5" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="65" t="s">
+      <c r="C5" s="63" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="66"/>
-      <c r="B6" s="64" t="s">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="62" t="s">
         <v>258</v>
       </c>
-      <c r="C6" s="65" t="s">
+      <c r="B6" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="65" t="s">
+      <c r="C6" s="63" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
